--- a/biology/Botanique/Jadav_Payeng/Jadav_Payeng.xlsx
+++ b/biology/Botanique/Jadav_Payeng/Jadav_Payeng.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jadav Payeng (assamais : যাদৱ পায়েং) dit Molai Payeng, né en 1963 dans l'État d'Assam en Inde, est un militant environnemental[1] et travailleur forestier indien[2] de la tribu des Misings[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jadav Payeng (assamais : যাদৱ পায়েং) dit Molai Payeng, né en 1963 dans l'État d'Assam en Inde, est un militant environnemental et travailleur forestier indien de la tribu des Misings.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sur plusieurs décennies[4], Jadav Payeng a planté seul des arbres sur un banc de sable du fleuve Brahmapoutre, transformant le banc de sable en réserve forestière[5]. La forêt, qu'il a baptisée « forêt Molai »[6],[7], est proche de Jorhat dans l'État d'Assam et couvre une superficie d'environ 550 hectares[8],[9].
-Le 6 janvier 2022, l'émission « Envoyé spécial », de France 2, a consacré à l'action de Jadav Payeng sur l'île de Majuli un reportage télévisé long format[10].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur plusieurs décennies, Jadav Payeng a planté seul des arbres sur un banc de sable du fleuve Brahmapoutre, transformant le banc de sable en réserve forestière. La forêt, qu'il a baptisée « forêt Molai » est proche de Jorhat dans l'État d'Assam et couvre une superficie d'environ 550 hectares,.
+Le 6 janvier 2022, l'émission « Envoyé spécial », de France 2, a consacré à l'action de Jadav Payeng sur l'île de Majuli un reportage télévisé long format.
 </t>
         </is>
       </c>
